--- a/Data_preparation/datasets/final_data/TEMENOS_AG_REG.xlsx
+++ b/Data_preparation/datasets/final_data/TEMENOS_AG_REG.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="46">
   <si>
     <t>Ticker</t>
   </si>
@@ -148,67 +148,7 @@
     <t>USD</t>
   </si>
   <si>
-    <t>2337 TT</t>
-  </si>
-  <si>
-    <t>005930 KS</t>
-  </si>
-  <si>
-    <t>CCC LN</t>
-  </si>
-  <si>
-    <t>UBI FP</t>
-  </si>
-  <si>
-    <t>IFX GR</t>
-  </si>
-  <si>
-    <t>XRO AU</t>
-  </si>
-  <si>
-    <t>AMP IM</t>
-  </si>
-  <si>
-    <t>6701 JP</t>
-  </si>
-  <si>
-    <t>2353 TT</t>
-  </si>
-  <si>
-    <t>5803 JP</t>
-  </si>
-  <si>
-    <t>TIETO FH</t>
-  </si>
-  <si>
-    <t>2344 TT</t>
-  </si>
-  <si>
-    <t>3665 TT</t>
-  </si>
-  <si>
-    <t>WKL NA</t>
-  </si>
-  <si>
-    <t>3661 TT</t>
-  </si>
-  <si>
-    <t>EXPN LN</t>
-  </si>
-  <si>
-    <t>6954 JP</t>
-  </si>
-  <si>
-    <t>ENR GR</t>
-  </si>
-  <si>
-    <t>3443 TT</t>
-  </si>
-  <si>
-    <t>6526 JP</t>
-  </si>
-  <si>
-    <t>6588 JP</t>
+    <t>TEMN SW</t>
   </si>
   <si>
     <t>CHF</t>
@@ -718,19 +658,19 @@
         <v>42094</v>
       </c>
       <c r="D2">
-        <v>14.23287433169937</v>
+        <v>77.72841848241376</v>
       </c>
       <c r="E2">
-        <v>14.04411090087891</v>
+        <v>72.10655346679688</v>
       </c>
       <c r="F2">
-        <v>14.53489889223091</v>
+        <v>79.07277608898339</v>
       </c>
       <c r="G2">
-        <v>13.47781518861963</v>
+        <v>68.68454847198167</v>
       </c>
       <c r="H2">
-        <v>1853869000</v>
+        <v>68984148</v>
       </c>
       <c r="I2" t="s">
         <v>44</v>
@@ -820,7 +760,7 @@
         <v>0</v>
       </c>
       <c r="AL2" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="AM2">
         <v>-9.150228967891371</v>
@@ -846,22 +786,22 @@
         <v>42185</v>
       </c>
       <c r="D3">
-        <v>24592.39874493671</v>
+        <v>77.72841848241376</v>
       </c>
       <c r="E3">
-        <v>22982.6439375</v>
+        <v>72.10655346679688</v>
       </c>
       <c r="F3">
-        <v>25426.36810300633</v>
+        <v>79.07277608898339</v>
       </c>
       <c r="G3">
-        <v>22788.69757515823</v>
+        <v>68.68454847198167</v>
       </c>
       <c r="H3">
-        <v>5876745450</v>
+        <v>68984148</v>
       </c>
       <c r="I3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J3">
         <v>2358970496.972241</v>
@@ -948,7 +888,7 @@
         <v>10447008</v>
       </c>
       <c r="AL3" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="AM3">
         <v>-1.593923704112554</v>
@@ -974,22 +914,22 @@
         <v>42277</v>
       </c>
       <c r="D4">
-        <v>941.2513210818738</v>
+        <v>77.72841848241376</v>
       </c>
       <c r="E4">
-        <v>941.873841796875</v>
+        <v>72.10655346679688</v>
       </c>
       <c r="F4">
-        <v>958.6819011019085</v>
+        <v>79.07277608898339</v>
       </c>
       <c r="G4">
-        <v>908.0460874212712</v>
+        <v>68.68454847198167</v>
       </c>
       <c r="H4">
-        <v>104878138</v>
+        <v>68984148</v>
       </c>
       <c r="I4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J4">
         <v>2702133960.607161</v>
@@ -1076,7 +1016,7 @@
         <v>0</v>
       </c>
       <c r="AL4" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="AM4">
         <v>1.655483866134683</v>
@@ -1102,22 +1042,22 @@
         <v>42369</v>
       </c>
       <c r="D5">
-        <v>33.852</v>
+        <v>77.72841848241376</v>
       </c>
       <c r="E5">
-        <v>31.6305591430664</v>
+        <v>72.10655346679688</v>
       </c>
       <c r="F5">
-        <v>33.852</v>
+        <v>79.07277608898339</v>
       </c>
       <c r="G5">
-        <v>27.74303942871094</v>
+        <v>68.68454847198167</v>
       </c>
       <c r="H5">
-        <v>134598631</v>
+        <v>68984148</v>
       </c>
       <c r="I5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="J5">
         <v>3365808640.074522</v>
@@ -1204,7 +1144,7 @@
         <v>22473984</v>
       </c>
       <c r="AL5" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="AM5">
         <v>-1.207998532762764</v>
@@ -1230,22 +1170,22 @@
         <v>42460</v>
       </c>
       <c r="D6">
-        <v>13.97733217834298</v>
+        <v>77.72841848241376</v>
       </c>
       <c r="E6">
-        <v>14.11937823486328</v>
+        <v>72.10655346679688</v>
       </c>
       <c r="F6">
-        <v>14.76710790580374</v>
+        <v>79.07277608898339</v>
       </c>
       <c r="G6">
-        <v>13.71028489850055</v>
+        <v>68.68454847198167</v>
       </c>
       <c r="H6">
-        <v>1299391231</v>
+        <v>68984148</v>
       </c>
       <c r="I6" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="J6">
         <v>3706544620.94083</v>
@@ -1332,7 +1272,7 @@
         <v>0</v>
       </c>
       <c r="AL6" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="AM6">
         <v>18.98713867259926</v>
@@ -1358,22 +1298,22 @@
         <v>42551</v>
       </c>
       <c r="D7">
-        <v>21.82751971435547</v>
+        <v>77.72841848241376</v>
       </c>
       <c r="E7">
-        <v>23.37503942871094</v>
+        <v>72.10655346679688</v>
       </c>
       <c r="F7">
-        <v>23.54976104736328</v>
+        <v>79.07277608898339</v>
       </c>
       <c r="G7">
-        <v>20.96639904785156</v>
+        <v>68.68454847198167</v>
       </c>
       <c r="H7">
-        <v>168262866</v>
+        <v>68984148</v>
       </c>
       <c r="I7" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="J7">
         <v>3363345581.303453</v>
@@ -1460,7 +1400,7 @@
         <v>8827104</v>
       </c>
       <c r="AL7" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="AM7">
         <v>17.63092126309164</v>
@@ -1486,22 +1426,22 @@
         <v>42643</v>
       </c>
       <c r="D8">
-        <v>10.84710266342286</v>
+        <v>77.72841848241376</v>
       </c>
       <c r="E8">
-        <v>11.25014556884766</v>
+        <v>72.10655346679688</v>
       </c>
       <c r="F8">
-        <v>11.77585307663831</v>
+        <v>79.07277608898339</v>
       </c>
       <c r="G8">
-        <v>10.39733022650822</v>
+        <v>68.68454847198167</v>
       </c>
       <c r="H8">
-        <v>219937482</v>
+        <v>68984148</v>
       </c>
       <c r="I8" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="J8">
         <v>4368832150.871905</v>
@@ -1588,7 +1528,7 @@
         <v>0</v>
       </c>
       <c r="AL8" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="AM8">
         <v>0.6281381006299828</v>
@@ -1614,22 +1554,22 @@
         <v>42735</v>
       </c>
       <c r="D9">
-        <v>667.6390641837285</v>
+        <v>77.72841848241376</v>
       </c>
       <c r="E9">
-        <v>562.1090185546875</v>
+        <v>72.10655346679688</v>
       </c>
       <c r="F9">
-        <v>712.8662265961746</v>
+        <v>79.07277608898339</v>
       </c>
       <c r="G9">
-        <v>555.6479953529094</v>
+        <v>68.68454847198167</v>
       </c>
       <c r="H9">
-        <v>1333460157</v>
+        <v>68984148</v>
       </c>
       <c r="I9" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="J9">
         <v>4729086807.888106</v>
@@ -1716,7 +1656,7 @@
         <v>22139520</v>
       </c>
       <c r="AL9" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="AM9">
         <v>0.5615593531982203</v>
@@ -1742,22 +1682,22 @@
         <v>42825</v>
       </c>
       <c r="D10">
-        <v>12.19242799732345</v>
+        <v>77.72841848241376</v>
       </c>
       <c r="E10">
-        <v>12.06542385864258</v>
+        <v>72.10655346679688</v>
       </c>
       <c r="F10">
-        <v>12.44643708215782</v>
+        <v>79.07277608898339</v>
       </c>
       <c r="G10">
-        <v>11.7267456171785</v>
+        <v>68.68454847198167</v>
       </c>
       <c r="H10">
-        <v>3006208000</v>
+        <v>68984148</v>
       </c>
       <c r="I10" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J10">
         <v>5598441571.198461</v>
@@ -1844,7 +1784,7 @@
         <v>0</v>
       </c>
       <c r="AL10" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="AM10">
         <v>1.311774161511393</v>
@@ -1870,22 +1810,22 @@
         <v>42916</v>
       </c>
       <c r="D11">
-        <v>1004.003835679183</v>
+        <v>77.72841848241376</v>
       </c>
       <c r="E11">
-        <v>990.162849609375</v>
+        <v>72.10655346679688</v>
       </c>
       <c r="F11">
-        <v>1092.37320827873</v>
+        <v>79.07277608898339</v>
       </c>
       <c r="G11">
-        <v>934.798905330141</v>
+        <v>68.68454847198167</v>
       </c>
       <c r="H11">
-        <v>275900103</v>
+        <v>68984148</v>
       </c>
       <c r="I11" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J11">
         <v>6077453144.518247</v>
@@ -1972,7 +1912,7 @@
         <v>11713728</v>
       </c>
       <c r="AL11" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="AM11">
         <v>3.752782399769175</v>
@@ -1998,22 +1938,22 @@
         <v>43008</v>
       </c>
       <c r="D12">
-        <v>20.3522015421465</v>
+        <v>77.72841848241376</v>
       </c>
       <c r="E12">
-        <v>20.7545126953125</v>
+        <v>72.10655346679688</v>
       </c>
       <c r="F12">
-        <v>22.35586867698083</v>
+        <v>79.07277608898339</v>
       </c>
       <c r="G12">
-        <v>20.3522015421465</v>
+        <v>68.68454847198167</v>
       </c>
       <c r="H12">
-        <v>118401578</v>
+        <v>68984148</v>
       </c>
       <c r="I12" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="J12">
         <v>7150574025.421246</v>
@@ -2100,7 +2040,7 @@
         <v>0</v>
       </c>
       <c r="AL12" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="AM12">
         <v>2.326756041846221</v>
@@ -2126,22 +2066,22 @@
         <v>43100</v>
       </c>
       <c r="D13">
-        <v>26.284094655401</v>
+        <v>77.72841848241376</v>
       </c>
       <c r="E13">
-        <v>26.94594598388672</v>
+        <v>72.10655346679688</v>
       </c>
       <c r="F13">
-        <v>29.35162866586136</v>
+        <v>79.07277608898339</v>
       </c>
       <c r="G13">
-        <v>25.91000658770955</v>
+        <v>68.68454847198167</v>
       </c>
       <c r="H13">
-        <v>1299391231</v>
+        <v>68984148</v>
       </c>
       <c r="I13" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="J13">
         <v>8814744500.832399</v>
@@ -2228,7 +2168,7 @@
         <v>29047200</v>
       </c>
       <c r="AL13" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="AM13">
         <v>4.126789972346032</v>
@@ -2254,22 +2194,22 @@
         <v>43190</v>
       </c>
       <c r="D14">
-        <v>19.90929238011319</v>
+        <v>77.72841848241376</v>
       </c>
       <c r="E14">
-        <v>18.49441937255859</v>
+        <v>72.10655346679688</v>
       </c>
       <c r="F14">
-        <v>20.31354236639861</v>
+        <v>79.07277608898339</v>
       </c>
       <c r="G14">
-        <v>16.77635887528993</v>
+        <v>68.68454847198167</v>
       </c>
       <c r="H14">
-        <v>4500000193</v>
+        <v>68984148</v>
       </c>
       <c r="I14" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="J14">
         <v>8343216666.995031</v>
@@ -2356,7 +2296,7 @@
         <v>0</v>
       </c>
       <c r="AL14" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="AM14">
         <v>3.540493173687403</v>
@@ -2382,19 +2322,19 @@
         <v>43281</v>
       </c>
       <c r="D15">
-        <v>40.3941369019497</v>
+        <v>77.72841848241376</v>
       </c>
       <c r="E15">
-        <v>39.46553393554687</v>
+        <v>72.10655346679688</v>
       </c>
       <c r="F15">
-        <v>41.60131750639431</v>
+        <v>79.07277608898339</v>
       </c>
       <c r="G15">
-        <v>37.46904279691928</v>
+        <v>68.68454847198167</v>
       </c>
       <c r="H15">
-        <v>1853869000</v>
+        <v>68984148</v>
       </c>
       <c r="I15" t="s">
         <v>44</v>
@@ -2484,7 +2424,7 @@
         <v>20448480</v>
       </c>
       <c r="AL15" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="AM15">
         <v>2.330934666123281</v>
@@ -2510,22 +2450,22 @@
         <v>43373</v>
       </c>
       <c r="D16">
-        <v>148.3497331359856</v>
+        <v>77.72841848241376</v>
       </c>
       <c r="E16">
-        <v>164.2799018554688</v>
+        <v>72.10655346679688</v>
       </c>
       <c r="F16">
-        <v>171.7471694147212</v>
+        <v>79.07277608898339</v>
       </c>
       <c r="G16">
-        <v>122.9610218793357</v>
+        <v>68.68454847198167</v>
       </c>
       <c r="H16">
-        <v>193969420</v>
+        <v>68984148</v>
       </c>
       <c r="I16" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="J16">
         <v>11318466752.48198</v>
@@ -2612,7 +2552,7 @@
         <v>0</v>
       </c>
       <c r="AL16" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="AM16">
         <v>3.347668918735841</v>
@@ -2638,22 +2578,22 @@
         <v>43465</v>
       </c>
       <c r="D17">
-        <v>223.0224234812576</v>
+        <v>77.72841848241376</v>
       </c>
       <c r="E17">
-        <v>178.218802734375</v>
+        <v>72.10655346679688</v>
       </c>
       <c r="F17">
-        <v>226.5071410721948</v>
+        <v>79.07277608898339</v>
       </c>
       <c r="G17">
-        <v>178.218802734375</v>
+        <v>68.68454847198167</v>
       </c>
       <c r="H17">
-        <v>193969420</v>
+        <v>68984148</v>
       </c>
       <c r="I17" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="J17">
         <v>7665362170.014296</v>
@@ -2740,7 +2680,7 @@
         <v>26997984</v>
       </c>
       <c r="AL17" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="AM17">
         <v>1.570653293974874</v>
@@ -2766,22 +2706,22 @@
         <v>43555</v>
       </c>
       <c r="D18">
-        <v>1368.064725598074</v>
+        <v>77.72841848241376</v>
       </c>
       <c r="E18">
-        <v>1503.8744296875</v>
+        <v>72.10655346679688</v>
       </c>
       <c r="F18">
-        <v>1616.010882605375</v>
+        <v>79.07277608898339</v>
       </c>
       <c r="G18">
-        <v>1292.061129731514</v>
+        <v>68.68454847198167</v>
       </c>
       <c r="H18">
-        <v>104878138</v>
+        <v>68984148</v>
       </c>
       <c r="I18" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J18">
         <v>10403686997.22352</v>
@@ -2868,7 +2808,7 @@
         <v>0</v>
       </c>
       <c r="AL18" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="AM18">
         <v>2.224947120737216</v>
@@ -2894,22 +2834,22 @@
         <v>43646</v>
       </c>
       <c r="D19">
-        <v>50599.03457910695</v>
+        <v>77.72841848241376</v>
       </c>
       <c r="E19">
-        <v>48461.79975</v>
+        <v>72.10655346679688</v>
       </c>
       <c r="F19">
-        <v>50812.75806201764</v>
+        <v>79.07277608898339</v>
       </c>
       <c r="G19">
-        <v>47393.18233544652</v>
+        <v>68.68454847198167</v>
       </c>
       <c r="H19">
-        <v>5876745450</v>
+        <v>68984148</v>
       </c>
       <c r="I19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J19">
         <v>12286351958.82561</v>
@@ -2996,7 +2936,7 @@
         <v>11107200</v>
       </c>
       <c r="AL19" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="AM19">
         <v>2.064499355075106</v>
@@ -3022,22 +2962,22 @@
         <v>43738</v>
       </c>
       <c r="D20">
-        <v>75.83355265879528</v>
+        <v>77.72841848241376</v>
       </c>
       <c r="E20">
-        <v>74.39124316406252</v>
+        <v>72.10655346679688</v>
       </c>
       <c r="F20">
-        <v>76.30680602903388</v>
+        <v>79.07277608898339</v>
       </c>
       <c r="G20">
-        <v>70.06434047023856</v>
+        <v>68.68454847198167</v>
       </c>
       <c r="H20">
-        <v>229140423</v>
+        <v>68984148</v>
       </c>
       <c r="I20" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="J20">
         <v>11693503571.62922</v>
@@ -3124,7 +3064,7 @@
         <v>0</v>
       </c>
       <c r="AL20" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="AM20">
         <v>12.94437393592323</v>
@@ -3150,22 +3090,22 @@
         <v>43830</v>
       </c>
       <c r="D21">
-        <v>278.1119961901352</v>
+        <v>77.72841848241376</v>
       </c>
       <c r="E21">
-        <v>273.3680815429687</v>
+        <v>72.10655346679688</v>
       </c>
       <c r="F21">
-        <v>315.4703240365714</v>
+        <v>79.07277608898339</v>
       </c>
       <c r="G21">
-        <v>253.799433623407</v>
+        <v>68.68454847198167</v>
       </c>
       <c r="H21">
-        <v>80995217</v>
+        <v>68984148</v>
       </c>
       <c r="I21" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="J21">
         <v>11105147708.79928</v>
@@ -3252,7 +3192,7 @@
         <v>49249824</v>
       </c>
       <c r="AL21" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="AM21">
         <v>-2.695656786005688</v>
@@ -3278,22 +3218,22 @@
         <v>43921</v>
       </c>
       <c r="D22">
-        <v>15.48930064990735</v>
+        <v>77.72841848241376</v>
       </c>
       <c r="E22">
-        <v>20.25799822998047</v>
+        <v>72.10655346679688</v>
       </c>
       <c r="F22">
-        <v>21.42447622303481</v>
+        <v>79.07277608898339</v>
       </c>
       <c r="G22">
-        <v>15.04948096664469</v>
+        <v>68.68454847198167</v>
       </c>
       <c r="H22">
-        <v>1299391231</v>
+        <v>68984148</v>
       </c>
       <c r="I22" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="J22">
         <v>9896400467.415743</v>
@@ -3380,7 +3320,7 @@
         <v>0</v>
       </c>
       <c r="AL22" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="AM22">
         <v>-9.334039000963337</v>
@@ -3406,22 +3346,22 @@
         <v>44012</v>
       </c>
       <c r="D23">
-        <v>1210.983462602133</v>
+        <v>77.72841848241376</v>
       </c>
       <c r="E23">
-        <v>1358.60811328125</v>
+        <v>72.10655346679688</v>
       </c>
       <c r="F23">
-        <v>1395.514275951029</v>
+        <v>79.07277608898339</v>
       </c>
       <c r="G23">
-        <v>1185.610475766659</v>
+        <v>68.68454847198167</v>
       </c>
       <c r="H23">
-        <v>1333460157</v>
+        <v>68984148</v>
       </c>
       <c r="I23" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="J23">
         <v>11204150997.87835</v>
@@ -3508,7 +3448,7 @@
         <v>16848000</v>
       </c>
       <c r="AL23" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="AM23">
         <v>-6.005786898862049</v>
@@ -3534,22 +3474,22 @@
         <v>44104</v>
       </c>
       <c r="D24">
-        <v>15.94118739493787</v>
+        <v>77.72841848241376</v>
       </c>
       <c r="E24">
-        <v>19.36939974975586</v>
+        <v>72.10655346679688</v>
       </c>
       <c r="F24">
-        <v>21.59773662610619</v>
+        <v>79.07277608898339</v>
       </c>
       <c r="G24">
-        <v>15.8269146391613</v>
+        <v>68.68454847198167</v>
       </c>
       <c r="H24">
-        <v>4500000193</v>
+        <v>68984148</v>
       </c>
       <c r="I24" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="J24">
         <v>9612406862.104671</v>
@@ -3636,7 +3576,7 @@
         <v>-6970080</v>
       </c>
       <c r="AL24" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="AM24">
         <v>-3.34719389888804</v>
@@ -3662,22 +3602,22 @@
         <v>44196</v>
       </c>
       <c r="D25">
-        <v>40.56943151790758</v>
+        <v>77.72841848241376</v>
       </c>
       <c r="E25">
-        <v>39.008150390625</v>
+        <v>72.10655346679688</v>
       </c>
       <c r="F25">
-        <v>41.17725588404182</v>
+        <v>79.07277608898339</v>
       </c>
       <c r="G25">
-        <v>38.41224218811668</v>
+        <v>68.68454847198167</v>
       </c>
       <c r="H25">
-        <v>219937482</v>
+        <v>68984148</v>
       </c>
       <c r="I25" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="J25">
         <v>10008877224.81998</v>
@@ -3764,7 +3704,7 @@
         <v>3350880</v>
       </c>
       <c r="AL25" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="AM25">
         <v>0.6951120638654614</v>
@@ -3790,22 +3730,22 @@
         <v>44286</v>
       </c>
       <c r="D26">
-        <v>3140.404752070648</v>
+        <v>77.72841848241376</v>
       </c>
       <c r="E26">
-        <v>3482.132671875</v>
+        <v>72.10655346679688</v>
       </c>
       <c r="F26">
-        <v>3503.334769089139</v>
+        <v>79.07277608898339</v>
       </c>
       <c r="G26">
-        <v>3124.790006704503</v>
+        <v>68.68454847198167</v>
       </c>
       <c r="H26">
-        <v>913159452</v>
+        <v>68984148</v>
       </c>
       <c r="I26" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="J26">
         <v>10296349716.80563</v>
@@ -3892,7 +3832,7 @@
         <v>0</v>
       </c>
       <c r="AL26" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="AM26">
         <v>19.88037643015509</v>
@@ -3918,22 +3858,22 @@
         <v>44377</v>
       </c>
       <c r="D27">
-        <v>50.00061544803443</v>
+        <v>77.72841848241376</v>
       </c>
       <c r="E27">
-        <v>49.97663378906251</v>
+        <v>72.10655346679688</v>
       </c>
       <c r="F27">
-        <v>50.58815008372856</v>
+        <v>79.07277608898339</v>
       </c>
       <c r="G27">
-        <v>45.2523567484025</v>
+        <v>68.68454847198167</v>
       </c>
       <c r="H27">
-        <v>219937482</v>
+        <v>68984148</v>
       </c>
       <c r="I27" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="J27">
         <v>11464617845.4324</v>
@@ -4020,7 +3960,7 @@
         <v>16099200</v>
       </c>
       <c r="AL27" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="AM27">
         <v>3.870932693537977</v>
@@ -4046,22 +3986,22 @@
         <v>44469</v>
       </c>
       <c r="D28">
-        <v>64.5465615234375</v>
+        <v>77.72841848241376</v>
       </c>
       <c r="E28">
-        <v>56.44703942871094</v>
+        <v>72.10655346679688</v>
       </c>
       <c r="F28">
-        <v>66.44352209472656</v>
+        <v>79.07277608898339</v>
       </c>
       <c r="G28">
-        <v>54.33792114257812</v>
+        <v>68.68454847198167</v>
       </c>
       <c r="H28">
-        <v>134598631</v>
+        <v>68984148</v>
       </c>
       <c r="I28" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="J28">
         <v>9557631368.167046</v>
@@ -4148,7 +4088,7 @@
         <v>32738784</v>
       </c>
       <c r="AL28" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="AM28">
         <v>-2.805472811048523</v>
@@ -4174,22 +4114,22 @@
         <v>44561</v>
       </c>
       <c r="D29">
-        <v>122.3802640291307</v>
+        <v>77.72841848241376</v>
       </c>
       <c r="E29">
-        <v>105.3778095703125</v>
+        <v>72.10655346679688</v>
       </c>
       <c r="F29">
-        <v>122.3802640291307</v>
+        <v>79.07277608898339</v>
       </c>
       <c r="G29">
-        <v>100.5433228944353</v>
+        <v>68.68454847198167</v>
       </c>
       <c r="H29">
-        <v>229140423</v>
+        <v>68984148</v>
       </c>
       <c r="I29" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="J29">
         <v>9718037834.467745</v>
@@ -4276,7 +4216,7 @@
         <v>11814816</v>
       </c>
       <c r="AL29" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="AM29">
         <v>-2.724042669151575</v>
@@ -4302,22 +4242,22 @@
         <v>44651</v>
       </c>
       <c r="D30">
-        <v>704.9229326879529</v>
+        <v>77.72841848241376</v>
       </c>
       <c r="E30">
-        <v>708.344888671875</v>
+        <v>72.10655346679688</v>
       </c>
       <c r="F30">
-        <v>709.4855406665157</v>
+        <v>79.07277608898339</v>
       </c>
       <c r="G30">
-        <v>607.9675131434933</v>
+        <v>68.68454847198167</v>
       </c>
       <c r="H30">
-        <v>275900103</v>
+        <v>68984148</v>
       </c>
       <c r="I30" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J30">
         <v>6779599219.857404</v>
@@ -4404,7 +4344,7 @@
         <v>8229312</v>
       </c>
       <c r="AL30" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="AM30">
         <v>1.990930541239204</v>
@@ -4430,22 +4370,22 @@
         <v>44742</v>
       </c>
       <c r="D31">
-        <v>1236.710042773238</v>
+        <v>77.72841848241376</v>
       </c>
       <c r="E31">
-        <v>1164.1722421875</v>
+        <v>72.10655346679688</v>
       </c>
       <c r="F31">
-        <v>1329.463295981231</v>
+        <v>79.07277608898339</v>
       </c>
       <c r="G31">
-        <v>1164.1722421875</v>
+        <v>68.68454847198167</v>
       </c>
       <c r="H31">
-        <v>1333460157</v>
+        <v>68984148</v>
       </c>
       <c r="I31" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="J31">
         <v>6131608117.932048</v>
@@ -4532,7 +4472,7 @@
         <v>23356320</v>
       </c>
       <c r="AL31" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="AM31">
         <v>-1.736563308536452</v>
@@ -4558,22 +4498,22 @@
         <v>44834</v>
       </c>
       <c r="D32">
-        <v>4779.778893004966</v>
+        <v>77.72841848241376</v>
       </c>
       <c r="E32">
-        <v>4640.309578125</v>
+        <v>72.10655346679688</v>
       </c>
       <c r="F32">
-        <v>5025.623109064569</v>
+        <v>79.07277608898339</v>
       </c>
       <c r="G32">
-        <v>4455.926416080299</v>
+        <v>68.68454847198167</v>
       </c>
       <c r="H32">
-        <v>933160187</v>
+        <v>68984148</v>
       </c>
       <c r="I32" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="J32">
         <v>4828738688.526642</v>
@@ -4660,7 +4600,7 @@
         <v>18058560</v>
       </c>
       <c r="AL32" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="AM32">
         <v>-6.164416923097368</v>
@@ -4686,22 +4626,22 @@
         <v>44926</v>
       </c>
       <c r="D33">
-        <v>22.05839904785156</v>
+        <v>77.72841848241376</v>
       </c>
       <c r="E33">
-        <v>23.86176104736328</v>
+        <v>72.10655346679688</v>
       </c>
       <c r="F33">
-        <v>24.66048028564454</v>
+        <v>79.07277608898339</v>
       </c>
       <c r="G33">
-        <v>21.32207885742188</v>
+        <v>68.68454847198167</v>
       </c>
       <c r="H33">
-        <v>795535712</v>
+        <v>68984148</v>
       </c>
       <c r="I33" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="J33">
         <v>3909529053.737096</v>
@@ -4788,7 +4728,7 @@
         <v>16126656</v>
       </c>
       <c r="AL33" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="AM33">
         <v>-0.5578088330507474</v>
@@ -4814,22 +4754,22 @@
         <v>45016</v>
       </c>
       <c r="D34">
-        <v>5798.41153470255</v>
+        <v>77.72841848241376</v>
       </c>
       <c r="E34">
-        <v>5487.50475</v>
+        <v>72.10655346679688</v>
       </c>
       <c r="F34">
-        <v>5799.60733002833</v>
+        <v>79.07277608898339</v>
       </c>
       <c r="G34">
-        <v>5272.261591359774</v>
+        <v>68.68454847198167</v>
       </c>
       <c r="H34">
-        <v>933160187</v>
+        <v>68984148</v>
       </c>
       <c r="I34" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="J34">
         <v>4879629748.938633</v>
@@ -4916,7 +4856,7 @@
         <v>11301888</v>
       </c>
       <c r="AL34" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="AM34">
         <v>3.817830051523521</v>
@@ -4942,22 +4882,22 @@
         <v>45107</v>
       </c>
       <c r="D35">
-        <v>374.2586124926382</v>
+        <v>77.72841848241376</v>
       </c>
       <c r="E35">
-        <v>349.0360986328125</v>
+        <v>72.10655346679688</v>
       </c>
       <c r="F35">
-        <v>388.5432874726106</v>
+        <v>79.07277608898339</v>
       </c>
       <c r="G35">
-        <v>342.832306200472</v>
+        <v>68.68454847198167</v>
       </c>
       <c r="H35">
-        <v>193969420</v>
+        <v>68984148</v>
       </c>
       <c r="I35" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="J35">
         <v>5668602697.8605</v>
@@ -5044,7 +4984,7 @@
         <v>17776512</v>
       </c>
       <c r="AL35" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="AM35">
         <v>6.210007268613086</v>
@@ -5070,22 +5010,22 @@
         <v>45199</v>
       </c>
       <c r="D36">
-        <v>1705.104226371951</v>
+        <v>77.72841848241376</v>
       </c>
       <c r="E36">
-        <v>1747.73183203125</v>
+        <v>72.10655346679688</v>
       </c>
       <c r="F36">
-        <v>2149.649256818924</v>
+        <v>79.07277608898339</v>
       </c>
       <c r="G36">
-        <v>1692.924910469294</v>
+        <v>68.68454847198167</v>
       </c>
       <c r="H36">
-        <v>134011000</v>
+        <v>68984148</v>
       </c>
       <c r="I36" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="J36">
         <v>5029007840.934219</v>
@@ -5172,7 +5112,7 @@
         <v>14665248</v>
       </c>
       <c r="AL36" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="AM36">
         <v>6.430063487725263</v>
@@ -5198,22 +5138,22 @@
         <v>45291</v>
       </c>
       <c r="D37">
-        <v>155.4983060365681</v>
+        <v>77.72841848241376</v>
       </c>
       <c r="E37">
-        <v>164.9224497070313</v>
+        <v>72.10655346679688</v>
       </c>
       <c r="F37">
-        <v>169.8761716880245</v>
+        <v>79.07277608898339</v>
       </c>
       <c r="G37">
-        <v>152.961039423139</v>
+        <v>68.68454847198167</v>
       </c>
       <c r="H37">
-        <v>229140423</v>
+        <v>68984148</v>
       </c>
       <c r="I37" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="J37">
         <v>6757561684.368582</v>
@@ -5300,7 +5240,7 @@
         <v>22266816</v>
       </c>
       <c r="AL37" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="AM37">
         <v>-3.709922359639447</v>
@@ -5326,22 +5266,22 @@
         <v>45382</v>
       </c>
       <c r="D38">
-        <v>5187.597316623587</v>
+        <v>77.72841848241376</v>
       </c>
       <c r="E38">
-        <v>5683.096453125</v>
+        <v>72.10655346679688</v>
       </c>
       <c r="F38">
-        <v>6360.318989321307</v>
+        <v>79.07277608898339</v>
       </c>
       <c r="G38">
-        <v>4681.194776140482</v>
+        <v>68.68454847198167</v>
       </c>
       <c r="H38">
-        <v>175134528</v>
+        <v>68984148</v>
       </c>
       <c r="I38" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="J38">
         <v>5084689495.159397</v>
@@ -5428,7 +5368,7 @@
         <v>13005408</v>
       </c>
       <c r="AL38" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="AM38">
         <v>8.333847333893541</v>
@@ -5454,22 +5394,22 @@
         <v>45473</v>
       </c>
       <c r="D39">
-        <v>3607.887391820672</v>
+        <v>77.72841848241376</v>
       </c>
       <c r="E39">
-        <v>3358.3792734375</v>
+        <v>72.10655346679688</v>
       </c>
       <c r="F39">
-        <v>3762.582425218239</v>
+        <v>79.07277608898339</v>
       </c>
       <c r="G39">
-        <v>3143.802291627972</v>
+        <v>68.68454847198167</v>
       </c>
       <c r="H39">
-        <v>104878138</v>
+        <v>68984148</v>
       </c>
       <c r="I39" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J39">
         <v>5133240115.265671</v>
@@ -5556,7 +5496,7 @@
         <v>16300128</v>
       </c>
       <c r="AL39" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="AM39">
         <v>-6.162047261484099</v>
@@ -5582,22 +5522,22 @@
         <v>45565</v>
       </c>
       <c r="D40">
-        <v>38.98701430850893</v>
+        <v>77.72841848241376</v>
       </c>
       <c r="E40">
-        <v>35.89526055908203</v>
+        <v>72.10655346679688</v>
       </c>
       <c r="F40">
-        <v>39.3147418099464</v>
+        <v>79.07277608898339</v>
       </c>
       <c r="G40">
-        <v>35.73449040199304</v>
+        <v>68.68454847198167</v>
       </c>
       <c r="H40">
-        <v>1299391231</v>
+        <v>68984148</v>
       </c>
       <c r="I40" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="J40">
         <v>4974765326.318431</v>
@@ -5684,7 +5624,7 @@
         <v>0</v>
       </c>
       <c r="AL40" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="AM40">
         <v>0.9372840595747536</v>
@@ -5710,22 +5650,22 @@
         <v>45657</v>
       </c>
       <c r="D41">
-        <v>3091.2894149719</v>
+        <v>77.72841848241376</v>
       </c>
       <c r="E41">
-        <v>2975.236265625</v>
+        <v>72.10655346679688</v>
       </c>
       <c r="F41">
-        <v>3442.502893258571</v>
+        <v>79.07277608898339</v>
       </c>
       <c r="G41">
-        <v>2902.550345770889</v>
+        <v>68.68454847198167</v>
       </c>
       <c r="H41">
-        <v>175134528</v>
+        <v>68984148</v>
       </c>
       <c r="I41" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="J41">
         <v>4950022533.257682</v>
@@ -5812,7 +5752,7 @@
         <v>0</v>
       </c>
       <c r="AL41" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="AM41">
         <v>0.2023487041547178</v>
@@ -5838,22 +5778,22 @@
         <v>45747</v>
       </c>
       <c r="D42">
-        <v>4481.198969471316</v>
+        <v>77.72841848241376</v>
       </c>
       <c r="E42">
-        <v>4635.9382265625</v>
+        <v>72.10655346679688</v>
       </c>
       <c r="F42">
-        <v>4635.9382265625</v>
+        <v>79.07277608898339</v>
       </c>
       <c r="G42">
-        <v>3804.838668314687</v>
+        <v>68.68454847198167</v>
       </c>
       <c r="H42">
-        <v>913159452</v>
+        <v>68984148</v>
       </c>
       <c r="I42" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="J42">
         <v>5406603346.508607</v>
@@ -5940,7 +5880,7 @@
         <v>0</v>
       </c>
       <c r="AL42" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="AM42">
         <v>-5.159740070788726</v>
@@ -5966,22 +5906,22 @@
         <v>45838</v>
       </c>
       <c r="D43">
-        <v>3665.376</v>
+        <v>70.824</v>
       </c>
       <c r="E43">
-        <v>3775.2</v>
+        <v>91.29120190429687</v>
       </c>
       <c r="F43">
-        <v>3900</v>
+        <v>93.16320190429687</v>
       </c>
       <c r="G43">
-        <v>3606.72</v>
+        <v>69.264</v>
       </c>
       <c r="H43">
-        <v>52985470</v>
+        <v>68984148</v>
       </c>
       <c r="I43" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="J43">
         <v>4998411823.142897</v>
@@ -6068,7 +6008,7 @@
         <v>0</v>
       </c>
       <c r="AL43" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="AM43">
         <v>2.099408871298399</v>
